--- a/classfiers/greedy/elm/smote/chatty_elm__smote_results.xlsx
+++ b/classfiers/greedy/elm/smote/chatty_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9315789473684211</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7662337662337663</v>
+        <v>0.4589371980676328</v>
       </c>
       <c r="D2" t="n">
-        <v>0.840855106888361</v>
+        <v>0.581039755351682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9474633553580922</v>
+        <v>0.7976356373095503</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8874172185430463</v>
+        <v>0.6715328467153284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6036036036036037</v>
+        <v>0.4487804878048781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7184986595174263</v>
+        <v>0.5380116959064327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9375356369027255</v>
+        <v>0.7690940766550523</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9192546583850931</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.4797979797979798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7455919395465994</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9448772516531125</v>
+        <v>0.7781967136805846</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9581151832460733</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782051282051282</v>
+        <v>0.492462311557789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8611764705882353</v>
+        <v>0.6144200626959249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9580056980056981</v>
+        <v>0.8382654010794716</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9177215189873418</v>
+        <v>0.776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6473214285714286</v>
+        <v>0.4254385964912281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7591623036649214</v>
+        <v>0.5495750708215298</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9512362637362637</v>
+        <v>0.7997193925674401</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9228175053059952</v>
+        <v>0.7607795352223308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6852657449055755</v>
+        <v>0.4610833147439016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7850568960411087</v>
+        <v>0.5735323938781909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9478236411311783</v>
+        <v>0.7965822442584198</v>
       </c>
     </row>
   </sheetData>
